--- a/data-raw/NutrientData/nutrientDetails/comp_recalc_csubf_fruits_Subtrop.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_recalc_csubf_fruits_Subtrop.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\klividini\Dropbox (IFPRI)\Jerry Nelson IMPACT\October 2015\Meeting Oct 19 2015\Keith Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/nutmod/data-raw/NutrientData/nutrientDetails/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="9740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="csubf" sheetId="2" r:id="rId1"/>
     <sheet name="FCT" sheetId="3" r:id="rId2"/>
     <sheet name="Weighted composition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -631,10 +634,10 @@
     <t>Fruits Subtrop</t>
   </si>
   <si>
-    <t>vit_d_μg</t>
-  </si>
-  <si>
     <t>pcn_fdsupply_avg</t>
+  </si>
+  <si>
+    <t>vit_d_µg</t>
   </si>
 </sst>
 </file>
@@ -1759,31 +1762,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="20.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="2" customWidth="1"/>
-    <col min="12" max="15" width="12.140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="4" customWidth="1"/>
-    <col min="17" max="20" width="11.7109375" style="4" customWidth="1"/>
-    <col min="21" max="26" width="12.42578125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="43" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="20.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.83203125" style="2" customWidth="1"/>
+    <col min="12" max="15" width="12.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="4" customWidth="1"/>
+    <col min="17" max="20" width="11.6640625" style="4" customWidth="1"/>
+    <col min="21" max="26" width="12.5" style="4" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
     <col min="28" max="28" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>200</v>
       </c>
@@ -1863,10 +1866,10 @@
         <v>134</v>
       </c>
       <c r="AA1" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
         <v>108</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>1.5137629672051156E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
         <v>109</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>2.4499247109803956E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
         <v>198</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>3.7750339266212464E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>4.4289194981606504E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>2.7636512227665833E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>0.10230905991438952</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>4.2873910681862293E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>9.9633294265604063E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>1.6477852563952439E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>6.6414791539837572E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>4.9283557455492507E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>3.2670891665185071E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>3.2238810881877106E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>8.1722438144039139E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>3.5845453524322034E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>7.8167713714134054E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>3.7063639002763698E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>1.4332771262182238E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>8.6084038033996665E-6</v>
       </c>
     </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>9.5699339092504103E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>2.5553166536583682E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="30"/>
@@ -3749,7 +3752,7 @@
         <v>2.5553166536583682E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>0.13496543869417038</v>
       </c>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>0.1100789555482176</v>
       </c>
     </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>0.25654714448602556</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>3.9366628759822851E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>1.4929666195580149E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>8.0186519162986469E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>7.4159975693441176E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>1.8534641020761357E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>0</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>9.7933815342133398E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="X38" s="4" t="s">
         <v>107</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="X39" s="4" t="s">
         <v>52</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>32545048.570709735</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="X40" s="4" t="s">
         <v>51</v>
       </c>
@@ -4521,17 +4524,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>112</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>165</v>
       </c>
       <c r="AH1" s="57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AI1" s="57" t="s">
         <v>166</v>
@@ -4665,7 +4668,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>27</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
@@ -5153,22 +5156,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>15</v>
       </c>
@@ -5418,12 +5421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>13</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>17</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>10</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>11</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>8</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>7</v>
       </c>
@@ -6279,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>29</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>3</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>2</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>26</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>28</v>
       </c>
@@ -6904,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>5</v>
       </c>
@@ -7029,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
         <v>32</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="B27" s="37" t="s">
         <v>186</v>
@@ -7402,12 +7405,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:44" ht="39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>22</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" ht="28" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>19</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>1</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
         <v>33</v>
       </c>
@@ -7905,7 +7908,7 @@
       <c r="AQ32" s="57"/>
       <c r="AR32" s="57"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
@@ -7994,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
         <v>24</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
         <v>25</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
         <v>16</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="42" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>4</v>
       </c>
@@ -8490,11 +8493,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="42:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="42:44" x14ac:dyDescent="0.2">
       <c r="AQ60" s="57"/>
       <c r="AR60" s="57"/>
     </row>
-    <row r="61" spans="42:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="42:44" x14ac:dyDescent="0.2">
       <c r="AP61" s="57"/>
       <c r="AQ61" s="57"/>
       <c r="AR61" s="57"/>
@@ -8512,12 +8515,12 @@
       <selection activeCell="AQ27" sqref="AQ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="40" max="40" width="9.140625" customWidth="1"/>
+    <col min="40" max="40" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>FCT!B1</f>
         <v>usda_code</v>
@@ -8648,7 +8651,7 @@
       </c>
       <c r="AG1" t="str">
         <f>FCT!AH1</f>
-        <v>vit_d_μg</v>
+        <v>vit_d_µg</v>
       </c>
       <c r="AH1" t="str">
         <f>FCT!AI1</f>
@@ -8691,7 +8694,7 @@
         <v>caffeine_mg</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>FCT!B2</f>
         <v>09037</v>
@@ -8865,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>FCT!B3</f>
         <v>09421</v>
@@ -9039,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>FCT!B4</f>
         <v>09089</v>
@@ -9213,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>FCT!B5</f>
         <v>09094</v>
@@ -9387,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>FCT!B6</f>
         <v>0</v>
@@ -9561,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>FCT!B7</f>
         <v>0</v>
@@ -9735,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>FCT!B8</f>
         <v>0</v>
@@ -9909,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>FCT!B9</f>
         <v>09111</v>
@@ -10083,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>FCT!B10</f>
         <v>09132</v>
@@ -10257,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>FCT!B11</f>
         <v>0</v>
@@ -10431,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>FCT!B12</f>
         <v>14262</v>
@@ -10605,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>FCT!B13</f>
         <v>14263</v>
@@ -10779,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>FCT!B14</f>
         <v>09135</v>
@@ -10953,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>FCT!B15</f>
         <v>09404</v>
@@ -11127,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>FCT!B16</f>
         <v>09125</v>
@@ -11301,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>FCT!B17</f>
         <v>09153</v>
@@ -11475,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>FCT!B18</f>
         <v>09154</v>
@@ -11649,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>FCT!B19</f>
         <v>09436</v>
@@ -11823,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>FCT!B20</f>
         <v>09214</v>
@@ -11997,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>FCT!B21</f>
         <v>09206</v>
@@ -12171,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>FCT!B22</f>
         <v>09273</v>
@@ -12345,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>FCT!B23</f>
         <v>09274</v>
@@ -12519,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>FCT!B24</f>
         <v>09221</v>
@@ -12693,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>FCT!B25</f>
         <v>09148</v>
@@ -12867,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>FCT!B26</f>
         <v>09150</v>
@@ -13041,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>FCT!B27</f>
         <v>09159</v>
@@ -13215,7 +13218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>FCT!B28</f>
         <v>0</v>
@@ -13389,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>FCT!B29</f>
         <v>09139</v>
@@ -13563,7 +13566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>FCT!B30</f>
         <v>09181</v>
@@ -13737,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>FCT!B31</f>
         <v>09200</v>
@@ -13911,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>FCT!B32</f>
         <v>09226</v>
@@ -14085,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>FCT!B33</f>
         <v>09265</v>
@@ -14259,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>FCT!B34</f>
         <v>09266</v>
@@ -14433,7 +14436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>FCT!B35</f>
         <v>09268</v>
@@ -14607,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>FCT!B36</f>
         <v>09298</v>
@@ -14781,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>FCT!B37</f>
         <v>09218</v>
@@ -14955,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
         <v>199</v>
       </c>
